--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H2">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>44.43799135997666</v>
+        <v>60.19875506829223</v>
       </c>
       <c r="R2">
-        <v>399.94192223979</v>
+        <v>541.7887956146301</v>
       </c>
       <c r="S2">
-        <v>0.05363259670523618</v>
+        <v>0.06192877624081718</v>
       </c>
       <c r="T2">
-        <v>0.05363259670523618</v>
+        <v>0.06192877624081718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H3">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>296.6435682601767</v>
+        <v>420.9950814332822</v>
       </c>
       <c r="R3">
-        <v>2669.792114341591</v>
+        <v>3788.95573289954</v>
       </c>
       <c r="S3">
-        <v>0.35802169213322</v>
+        <v>0.4330938433359527</v>
       </c>
       <c r="T3">
-        <v>0.35802169213322</v>
+        <v>0.4330938433359526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H4">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>4.829542514124999</v>
+        <v>0.7915133809511111</v>
       </c>
       <c r="R4">
-        <v>43.465882627125</v>
+        <v>7.123620428560001</v>
       </c>
       <c r="S4">
-        <v>0.005828816694990116</v>
+        <v>0.0008142602783882557</v>
       </c>
       <c r="T4">
-        <v>0.005828816694990116</v>
+        <v>0.0008142602783882557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H5">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>104.58354251793</v>
+        <v>148.4014576138567</v>
       </c>
       <c r="R5">
-        <v>941.2518826613699</v>
+        <v>1335.61311852471</v>
       </c>
       <c r="S5">
-        <v>0.1262227833934213</v>
+        <v>0.1526662910545862</v>
       </c>
       <c r="T5">
-        <v>0.1262227833934212</v>
+        <v>0.1526662910545862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H6">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>12.84755621136167</v>
+        <v>1.294717183848889</v>
       </c>
       <c r="R6">
-        <v>115.628005902255</v>
+        <v>11.65245465464</v>
       </c>
       <c r="S6">
-        <v>0.01550582688020429</v>
+        <v>0.001331925397506288</v>
       </c>
       <c r="T6">
-        <v>0.01550582688020429</v>
+        <v>0.001331925397506288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>32.35159891564978</v>
+        <v>30.88067282404178</v>
       </c>
       <c r="R7">
-        <v>291.164390240848</v>
+        <v>277.926055416376</v>
       </c>
       <c r="S7">
-        <v>0.03904542496885511</v>
+        <v>0.03176813665525891</v>
       </c>
       <c r="T7">
-        <v>0.03904542496885511</v>
+        <v>0.03176813665525891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
         <v>215.9614655738898</v>
@@ -948,10 +948,10 @@
         <v>1943.653190165008</v>
       </c>
       <c r="S8">
-        <v>0.2606457635127966</v>
+        <v>0.222167871461661</v>
       </c>
       <c r="T8">
-        <v>0.2606457635127966</v>
+        <v>0.222167871461661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>3.515987504866667</v>
+        <v>0.4060294224568889</v>
       </c>
       <c r="R9">
-        <v>31.6438875438</v>
+        <v>3.654264802112</v>
       </c>
       <c r="S9">
-        <v>0.004243475775977616</v>
+        <v>0.0004176980939555206</v>
       </c>
       <c r="T9">
-        <v>0.004243475775977616</v>
+        <v>0.0004176980939555206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.948152</v>
       </c>
       <c r="I10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>76.13856335921599</v>
+        <v>76.12677129262133</v>
       </c>
       <c r="R10">
-        <v>685.247070232944</v>
+        <v>685.140941633592</v>
       </c>
       <c r="S10">
-        <v>0.09189229164931924</v>
+        <v>0.07831453956096494</v>
       </c>
       <c r="T10">
-        <v>0.09189229164931922</v>
+        <v>0.07831453956096496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>18.948152</v>
       </c>
       <c r="I11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>9.353235213295111</v>
+        <v>0.6641622025031111</v>
       </c>
       <c r="R11">
-        <v>84.179116919656</v>
+        <v>5.977459822528001</v>
       </c>
       <c r="S11">
-        <v>0.01128850059896438</v>
+        <v>0.0006832492196850726</v>
       </c>
       <c r="T11">
-        <v>0.01128850059896437</v>
+        <v>0.0006832492196850726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H12">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>2.675825243864889</v>
+        <v>1.557543256773445</v>
       </c>
       <c r="R12">
-        <v>24.082427194784</v>
+        <v>14.017889310961</v>
       </c>
       <c r="S12">
-        <v>0.003229476665481111</v>
+        <v>0.001602304694253085</v>
       </c>
       <c r="T12">
-        <v>0.003229476665481111</v>
+        <v>0.001602304694253084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H13">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>17.86233634978489</v>
+        <v>10.89255167282644</v>
       </c>
       <c r="R13">
-        <v>160.761027148064</v>
+        <v>98.032965055438</v>
       </c>
       <c r="S13">
-        <v>0.02155820846853409</v>
+        <v>0.01120558713336768</v>
       </c>
       <c r="T13">
-        <v>0.02155820846853409</v>
+        <v>0.01120558713336768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H14">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>0.2908099889333333</v>
+        <v>0.02047910007022222</v>
       </c>
       <c r="R14">
-        <v>2.6172899004</v>
+        <v>0.184311900632</v>
       </c>
       <c r="S14">
-        <v>0.0003509810947117447</v>
+        <v>2.106763843244498E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003509810947117447</v>
+        <v>2.106763843244498E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H15">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>6.297478229727999</v>
+        <v>3.839642353726334</v>
       </c>
       <c r="R15">
-        <v>56.67730406755199</v>
+        <v>34.556781183537</v>
       </c>
       <c r="S15">
-        <v>0.007600481025773886</v>
+        <v>0.003949987867671503</v>
       </c>
       <c r="T15">
-        <v>0.007600481025773885</v>
+        <v>0.003949987867671503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H16">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>0.7736131670275554</v>
+        <v>0.03349866648977778</v>
       </c>
       <c r="R16">
-        <v>6.962518503248</v>
+        <v>0.301487998408</v>
       </c>
       <c r="S16">
-        <v>0.0009336804325142924</v>
+        <v>3.446136749934056E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009336804325142923</v>
+        <v>3.446136749934056E-05</v>
       </c>
     </row>
   </sheetData>
